--- a/DataFiles/ExcelFiles/CreateEnrollments.xlsx
+++ b/DataFiles/ExcelFiles/CreateEnrollments.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{278F1DBA-68BB-4A94-9167-88B75ABB8EFD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E1CA05E8-F08A-423D-823A-E874E6E26092}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21945" windowHeight="5370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="20790" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enrollments" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Dropdownvalue</t>
   </si>
@@ -32,13 +32,16 @@
     <t>Enter Text</t>
   </si>
   <si>
-    <t>(Payee Regression) GPR -No Install - QA Enabled</t>
-  </si>
-  <si>
     <t>(Payee Regression) GPR - Install - QA Enabled</t>
   </si>
   <si>
     <t>Search For Account Number</t>
+  </si>
+  <si>
+    <t>(Payee Regression) GPR - No Install - QA Enabled</t>
+  </si>
+  <si>
+    <t>Account Number</t>
   </si>
 </sst>
 </file>
@@ -388,13 +391,13 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.5703125" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
@@ -416,7 +419,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" s="3">
         <v>90001870001</v>
@@ -427,7 +430,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="3"/>
     </row>
@@ -436,7 +439,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
